--- a/data/trans_bre/IP18A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 9,49</t>
+          <t>-18,75; 8,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 14,29</t>
+          <t>-12,91; 13,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 8,28</t>
+          <t>-17,9; 10,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 47,0</t>
+          <t>-33,19; 49,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 17,09</t>
+          <t>-27,86; 14,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 26,84</t>
+          <t>-19,37; 24,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 12,37</t>
+          <t>-22,65; 15,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 186,27</t>
+          <t>-51,17; 197,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 5,35</t>
+          <t>-5,01; 5,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 3,04</t>
+          <t>-7,17; 2,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,82</t>
+          <t>-4,0; 6,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 19,97</t>
+          <t>-8,07; 19,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 8,41</t>
+          <t>-7,28; 8,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 4,59</t>
+          <t>-10,28; 3,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 10,84</t>
+          <t>-5,82; 10,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 79,09</t>
+          <t>-21,83; 74,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 6,11</t>
+          <t>-12,83; 6,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 12,92</t>
+          <t>-4,66; 13,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 7,51</t>
+          <t>-10,0; 8,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 23,86</t>
+          <t>-14,83; 24,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 10,67</t>
+          <t>-20,36; 11,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 22,47</t>
+          <t>-7,12; 22,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 12,9</t>
+          <t>-15,52; 15,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 179,63</t>
+          <t>-44,34; 165,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,9</t>
+          <t>-5,82; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,62</t>
+          <t>-5,16; 3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,17</t>
+          <t>-4,25; 4,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 15,96</t>
+          <t>-6,1; 16,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,64</t>
+          <t>-8,78; 4,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,72</t>
+          <t>-7,67; 5,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,57</t>
+          <t>-6,21; 7,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 62,28</t>
+          <t>-17,3; 60,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,23%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,0; 7,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 13,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 8,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,76; 49,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; 13,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 26,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,17; 12,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,21; 203,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,33</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,68</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,27%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 8,04</t>
+          <t>-5,37; 5,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 13,14</t>
+          <t>-7,73; 2,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 10,13</t>
+          <t>-4,35; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 49,6</t>
+          <t>-8,64; 19,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 14,77</t>
+          <t>-7,73; 8,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 24,5</t>
+          <t>-11,13; 4,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 15,19</t>
+          <t>-6,23; 10,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 197,38</t>
+          <t>-21,98; 73,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>14,89%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,48</t>
+          <t>-13,17; 5,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 2,59</t>
+          <t>-4,75; 12,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,31</t>
+          <t>-10,54; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 19,72</t>
+          <t>-17,67; 23,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 8,56</t>
+          <t>-20,46; 9,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 3,91</t>
+          <t>-7,04; 22,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 10,11</t>
+          <t>-16,45; 13,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 74,92</t>
+          <t>-47,39; 151,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,08%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 6,71</t>
+          <t>-6,07; 2,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 13,09</t>
+          <t>-5,17; 3,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 8,57</t>
+          <t>-3,55; 4,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 24,7</t>
+          <t>-6,06; 16,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 11,84</t>
+          <t>-9,02; 4,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 22,15</t>
+          <t>-7,54; 5,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 15,44</t>
+          <t>-5,35; 7,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,34; 165,45</t>
+          <t>-16,91; 61,33</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,92%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 2,86</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 3,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 4,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 16,33</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 4,57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 5,81</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 7,27</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; 60,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
